--- a/chatbot.xlsx
+++ b/chatbot.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47B0E8C-4EE0-4433-BDC7-3291610B0D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{285F061D-CEB6-4A85-890E-7BCD759CDF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7BCC0075-4B0E-4F3B-B4E3-EDD544961587}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="chatbot" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -833,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DDAF37-2A9C-4DE0-B021-D8A23B87C4CE}">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
       <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
